--- a/PotentialAtariAlgorithms.xlsx
+++ b/PotentialAtariAlgorithms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\link4\Documents\CodeStuff\DRL-coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\DRL-coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1453F-CCFE-45B1-BF36-5E5897172262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2816625-4499-4382-9393-32534EB92137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8190" yWindow="5580" windowWidth="17640" windowHeight="12150" xr2:uid="{988E1CDC-A453-475A-B416-D0E1C827EA89}"/>
+    <workbookView xWindow="4950" yWindow="45" windowWidth="23850" windowHeight="15555" xr2:uid="{988E1CDC-A453-475A-B416-D0E1C827EA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Algorithm</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Sounds good!</t>
+  </si>
+  <si>
+    <t>don't think so</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,6 +722,9 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
@@ -737,6 +743,9 @@
       </c>
       <c r="C15" t="s">
         <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
